--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboav\Documents\ProjetosCursoGit\Ola-Mundo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A160392F-48EF-4A43-8F43-57C41039C932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF26EF8-7595-4998-9357-DA3800FD15AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2463413C-2877-42C9-A45F-4CC46B6B3615}"/>
   </bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="6">
   <si>
     <t>Coluna 1</t>
   </si>
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -87,8 +90,8 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -120,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,25 +276,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -299,25 +302,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -330,21 +333,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -358,7 +361,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -370,32 +373,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+            <a:gs pos="0%">
+              <a:schemeClr val="phClr">
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50%">
+              <a:schemeClr val="phClr">
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100%">
+              <a:schemeClr val="phClr">
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -415,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C843D8-A5A4-43DB-A15F-2F4557FD26E8}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C843D8-A5A4-43DB-A15F-2F4557FD26E8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +461,9 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>200.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboav\Documents\ProjetosCursoGit\Ola-Mundo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF26EF8-7595-4998-9357-DA3800FD15AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EAF79031-FAA7-4AC5-B954-0E7175E56ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2463413C-2877-42C9-A45F-4CC46B6B3615}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="6">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="7" uniqueCount="7">
   <si>
     <t>Coluna 1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>ZZZZ</t>
+  </si>
+  <si>
+    <t>AAAA</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C843D8-A5A4-43DB-A15F-2F4557FD26E8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +468,14 @@
         <v>200.05</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>155.05000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
